--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamjazad/github-repos/neuroplan/source/data/topologies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB92E36-05E3-A24E-A063-A491F6851622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Flows" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibers" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows" sheetId="3" r:id="rId3"/>
+    <sheet name="L3Nodes" sheetId="4" r:id="rId4"/>
+    <sheet name="L3Links" sheetId="5" r:id="rId5"/>
+    <sheet name="Spofs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>LinkName</t>
   </si>
@@ -35,73 +45,73 @@
     <t>CapacityMax</t>
   </si>
   <si>
-    <t>Link-0</t>
-  </si>
-  <si>
-    <t>Link-1</t>
-  </si>
-  <si>
-    <t>Link-2</t>
-  </si>
-  <si>
-    <t>Link-3</t>
-  </si>
-  <si>
-    <t>Link-4</t>
-  </si>
-  <si>
-    <t>Link-5</t>
-  </si>
-  <si>
-    <t>Link-6</t>
-  </si>
-  <si>
-    <t>Link-7</t>
-  </si>
-  <si>
-    <t>Link-8</t>
-  </si>
-  <si>
-    <t>Link-9</t>
-  </si>
-  <si>
-    <t>Link-10</t>
-  </si>
-  <si>
-    <t>Link-11</t>
-  </si>
-  <si>
-    <t>Link-12</t>
-  </si>
-  <si>
-    <t>Link-13</t>
-  </si>
-  <si>
-    <t>Link-14</t>
-  </si>
-  <si>
-    <t>Link-15</t>
-  </si>
-  <si>
-    <t>Link-16</t>
-  </si>
-  <si>
-    <t>Link-17</t>
-  </si>
-  <si>
-    <t>Link-18</t>
-  </si>
-  <si>
-    <t>Link-19</t>
-  </si>
-  <si>
-    <t>Link-20</t>
-  </si>
-  <si>
-    <t>Link-21</t>
-  </si>
-  <si>
-    <t>Link-22</t>
+    <t>Link_0</t>
+  </si>
+  <si>
+    <t>Link_1</t>
+  </si>
+  <si>
+    <t>Link_2</t>
+  </si>
+  <si>
+    <t>Link_3</t>
+  </si>
+  <si>
+    <t>Link_4</t>
+  </si>
+  <si>
+    <t>Link_5</t>
+  </si>
+  <si>
+    <t>Link_6</t>
+  </si>
+  <si>
+    <t>Link_7</t>
+  </si>
+  <si>
+    <t>Link_8</t>
+  </si>
+  <si>
+    <t>Link_9</t>
+  </si>
+  <si>
+    <t>Link_10</t>
+  </si>
+  <si>
+    <t>Link_11</t>
+  </si>
+  <si>
+    <t>Link_12</t>
+  </si>
+  <si>
+    <t>Link_13</t>
+  </si>
+  <si>
+    <t>Link_14</t>
+  </si>
+  <si>
+    <t>Link_15</t>
+  </si>
+  <si>
+    <t>Link_16</t>
+  </si>
+  <si>
+    <t>Link_17</t>
+  </si>
+  <si>
+    <t>Link_18</t>
+  </si>
+  <si>
+    <t>Link_19</t>
+  </si>
+  <si>
+    <t>Link_20</t>
+  </si>
+  <si>
+    <t>Link_21</t>
+  </si>
+  <si>
+    <t>Link_22</t>
   </si>
   <si>
     <t>Glasgow_0</t>
@@ -176,6 +186,24 @@
     <t>Kalispell_17</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>rtt</t>
+  </si>
+  <si>
+    <t>max_fp</t>
+  </si>
+  <si>
+    <t>spectrum_size_ghz_per_fp</t>
+  </si>
+  <si>
     <t>COS</t>
   </si>
   <si>
@@ -183,13 +211,181 @@
   </si>
   <si>
     <t>BRONZE</t>
+  </si>
+  <si>
+    <t>l1_node</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>min_capacity_gbps</t>
+  </si>
+  <si>
+    <t>max_capacity_gbps</t>
+  </si>
+  <si>
+    <t>final_capacity_gpbs</t>
+  </si>
+  <si>
+    <t>igp</t>
+  </si>
+  <si>
+    <t>fiber_name_map_spectrum</t>
+  </si>
+  <si>
+    <t>ip_Link_0</t>
+  </si>
+  <si>
+    <t>ip_Link_1</t>
+  </si>
+  <si>
+    <t>ip_Link_2</t>
+  </si>
+  <si>
+    <t>ip_Link_3</t>
+  </si>
+  <si>
+    <t>ip_Link_4</t>
+  </si>
+  <si>
+    <t>ip_Link_5</t>
+  </si>
+  <si>
+    <t>ip_Link_6</t>
+  </si>
+  <si>
+    <t>ip_Link_7</t>
+  </si>
+  <si>
+    <t>ip_Link_8</t>
+  </si>
+  <si>
+    <t>ip_Link_9</t>
+  </si>
+  <si>
+    <t>ip_Link_10</t>
+  </si>
+  <si>
+    <t>ip_Link_11</t>
+  </si>
+  <si>
+    <t>ip_Link_12</t>
+  </si>
+  <si>
+    <t>ip_Link_13</t>
+  </si>
+  <si>
+    <t>ip_Link_14</t>
+  </si>
+  <si>
+    <t>ip_Link_15</t>
+  </si>
+  <si>
+    <t>ip_Link_16</t>
+  </si>
+  <si>
+    <t>ip_Link_17</t>
+  </si>
+  <si>
+    <t>ip_Link_18</t>
+  </si>
+  <si>
+    <t>ip_Link_19</t>
+  </si>
+  <si>
+    <t>ip_Link_20</t>
+  </si>
+  <si>
+    <t>ip_Link_21</t>
+  </si>
+  <si>
+    <t>ip_Link_22</t>
+  </si>
+  <si>
+    <t>Link_0:5</t>
+  </si>
+  <si>
+    <t>Link_1:5</t>
+  </si>
+  <si>
+    <t>Link_2:5</t>
+  </si>
+  <si>
+    <t>Link_3:5</t>
+  </si>
+  <si>
+    <t>Link_4:5</t>
+  </si>
+  <si>
+    <t>Link_5:5</t>
+  </si>
+  <si>
+    <t>Link_6:5</t>
+  </si>
+  <si>
+    <t>Link_7:5</t>
+  </si>
+  <si>
+    <t>Link_8:5</t>
+  </si>
+  <si>
+    <t>Link_9:5</t>
+  </si>
+  <si>
+    <t>Link_10:5</t>
+  </si>
+  <si>
+    <t>Link_11:5</t>
+  </si>
+  <si>
+    <t>Link_12:5</t>
+  </si>
+  <si>
+    <t>Link_13:5</t>
+  </si>
+  <si>
+    <t>Link_14:5</t>
+  </si>
+  <si>
+    <t>Link_15:5</t>
+  </si>
+  <si>
+    <t>Link_16:5</t>
+  </si>
+  <si>
+    <t>Link_17:5</t>
+  </si>
+  <si>
+    <t>Link_18:5</t>
+  </si>
+  <si>
+    <t>Link_19:5</t>
+  </si>
+  <si>
+    <t>Link_20:5</t>
+  </si>
+  <si>
+    <t>Link_21:5</t>
+  </si>
+  <si>
+    <t>Link_22:5</t>
+  </si>
+  <si>
+    <t>fiber_names</t>
+  </si>
+  <si>
+    <t>cos_to_protect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +448,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +534,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +586,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,7 +829,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -603,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -612,7 +852,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -635,7 +875,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -649,7 +889,7 @@
         <v>44</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -658,7 +898,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -672,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -681,7 +921,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -704,7 +944,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -718,7 +958,7 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -727,7 +967,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -741,7 +981,7 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -750,7 +990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -764,7 +1004,7 @@
         <v>47</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -773,7 +1013,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -796,7 +1036,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -810,7 +1050,7 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -819,7 +1059,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,7 +1073,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -842,7 +1082,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -865,7 +1105,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -888,7 +1128,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -902,7 +1142,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -911,7 +1151,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -925,7 +1165,7 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -934,7 +1174,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -948,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -957,7 +1197,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -971,7 +1211,7 @@
         <v>46</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -980,7 +1220,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1003,7 +1243,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1017,7 +1257,7 @@
         <v>52</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1026,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1040,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1049,7 +1289,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1063,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1072,7 +1312,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1086,7 +1326,7 @@
         <v>51</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1101,14 +1341,576 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,13 +1921,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1139,13 +1941,13 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1159,13 +1961,13 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1179,13 +1981,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1199,13 +2001,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1219,13 +2021,13 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1239,13 +2041,13 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1259,13 +2061,13 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1279,13 +2081,13 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1299,13 +2101,13 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F10">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1319,13 +2121,13 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1339,13 +2141,13 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1359,13 +2161,13 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1379,13 +2181,13 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F14">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1399,13 +2201,13 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1419,13 +2221,13 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1439,13 +2241,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1459,13 +2261,13 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F18">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1479,13 +2281,13 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1499,13 +2301,13 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1519,13 +2321,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F21">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1539,13 +2341,13 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1559,13 +2361,13 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1579,10 +2381,1099 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>390</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>698</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>117</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>739</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>591</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>718</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>363</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>813</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>389</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>537</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>656</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>140</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>223</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>490</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>603</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>282</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>143</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>115</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>746</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>662</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="F24">
-        <v>849</v>
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>835</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamjazad/github-repos/neuroplan/source/data/topologies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB92E36-05E3-A24E-A063-A491F6851622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E4CCFF-8BCC-9946-9C97-930474583590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1906,7 +1906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1944,7 +1946,7 @@
         <v>61</v>
       </c>
       <c r="F2">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1964,7 +1966,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1984,7 +1986,7 @@
         <v>61</v>
       </c>
       <c r="F4">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2004,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="F5">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2024,7 +2026,7 @@
         <v>61</v>
       </c>
       <c r="F6">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2044,7 +2046,7 @@
         <v>61</v>
       </c>
       <c r="F7">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2064,7 +2066,7 @@
         <v>61</v>
       </c>
       <c r="F8">
-        <v>849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2084,7 +2086,7 @@
         <v>61</v>
       </c>
       <c r="F9">
-        <v>271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2104,7 +2106,7 @@
         <v>61</v>
       </c>
       <c r="F10">
-        <v>819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2124,7 +2126,7 @@
         <v>61</v>
       </c>
       <c r="F11">
-        <v>665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2144,7 +2146,7 @@
         <v>61</v>
       </c>
       <c r="F12">
-        <v>996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2164,7 +2166,7 @@
         <v>61</v>
       </c>
       <c r="F13">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="F14">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2204,7 +2206,7 @@
         <v>61</v>
       </c>
       <c r="F15">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2224,7 +2226,7 @@
         <v>61</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2244,7 +2246,7 @@
         <v>61</v>
       </c>
       <c r="F17">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2264,7 +2266,7 @@
         <v>61</v>
       </c>
       <c r="F18">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2284,7 +2286,7 @@
         <v>61</v>
       </c>
       <c r="F19">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2304,7 +2306,7 @@
         <v>61</v>
       </c>
       <c r="F20">
-        <v>901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2324,7 +2326,7 @@
         <v>61</v>
       </c>
       <c r="F21">
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2344,7 +2346,7 @@
         <v>61</v>
       </c>
       <c r="F22">
-        <v>631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2364,7 +2366,7 @@
         <v>61</v>
       </c>
       <c r="F23">
-        <v>357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,7 +2386,7 @@
         <v>61</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2806,7 +2810,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2835,7 +2839,7 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2864,7 +2868,7 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2893,7 +2897,7 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2922,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2951,7 +2955,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2980,7 +2984,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3009,7 +3013,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3038,7 +3042,7 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3067,7 +3071,7 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3096,7 +3100,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3125,7 +3129,7 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3154,7 +3158,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3183,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3212,7 +3216,7 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3241,7 +3245,7 @@
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3270,7 +3274,7 @@
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3299,7 +3303,7 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3328,7 +3332,7 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3357,7 +3361,7 @@
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3386,7 +3390,7 @@
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3415,7 +3419,7 @@
         <v>1000</v>
       </c>
       <c r="G23">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3444,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="G24">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3462,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamjazad/github-repos/neuroplan/source/data/topologies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E4CCFF-8BCC-9946-9C97-930474583590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C70E357-8A69-1545-BFD7-085756F98E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2758,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>0</v>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C70E357-8A69-1545-BFD7-085756F98E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E901C6B-BABF-CD4C-9837-CBE5DF6E0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2759,7 +2759,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>1000</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>0</v>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E901C6B-BABF-CD4C-9837-CBE5DF6E0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2F2D7-1A7C-8B49-BFF1-C77190B196D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="118">
   <si>
     <t>LinkName</t>
   </si>
@@ -2758,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>1000</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3464,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
-  <dimension ref="B1:C1"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3480,6 +3480,16 @@
         <v>117</v>
       </c>
     </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2F2D7-1A7C-8B49-BFF1-C77190B196D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C7409-8DEE-ED41-AE5F-EEC67416544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="118">
   <si>
     <t>LinkName</t>
   </si>
@@ -3484,10 +3484,16 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C7409-8DEE-ED41-AE5F-EEC67416544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1F1AC-45FA-5D4D-A836-B4455C8E2C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <sheet name="L3Links" sheetId="5" r:id="rId5"/>
     <sheet name="Spofs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2758,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2823,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2836,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2865,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2894,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>432</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2923,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2952,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2981,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3010,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>345</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3039,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>2456</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>2342</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3068,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>234</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3097,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>543</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3126,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>565</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3155,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>456</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3184,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>123</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3213,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>345</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3242,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>785</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>634</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3271,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1000</v>
+        <v>456</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3300,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3332,7 +3345,7 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3358,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1000</v>
+        <v>344</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3387,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1000</v>
+        <v>234</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3416,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3445,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>432</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3466,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1F1AC-45FA-5D4D-A836-B4455C8E2C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BD821-BE49-A747-8E39-AF14C5525F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="118">
   <si>
     <t>LinkName</t>
   </si>
@@ -795,7 +795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2771,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3461,7 +3463,7 @@
         <v>667</v>
       </c>
       <c r="G24">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3477,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3495,7 +3497,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -3503,9 +3505,177 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
     </row>

--- a/source/data/topologies/VisionNet_topology.xlsx
+++ b/source/data/topologies/VisionNet_topology.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelarmourgarb/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2F2D7-1A7C-8B49-BFF1-C77190B196D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="1660" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="L3Links" sheetId="5" r:id="rId5"/>
     <sheet name="Spofs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>LinkName</t>
   </si>
@@ -384,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,14 +442,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -502,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,27 +520,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,24 +554,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -779,14 +729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -829,7 +779,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -843,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -852,7 +802,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -866,7 +816,7 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -875,7 +825,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -898,7 +848,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -912,7 +862,7 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -921,7 +871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -935,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -944,7 +894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -958,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -967,7 +917,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -981,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,7 +940,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1004,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1013,7 +963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1027,7 +977,7 @@
         <v>48</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1050,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1059,7 +1009,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1073,7 +1023,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1082,7 +1032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1096,7 +1046,7 @@
         <v>49</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1105,7 +1055,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,7 +1069,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1128,7 +1078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1142,7 +1092,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1151,7 +1101,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1174,7 +1124,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1188,7 +1138,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1197,7 +1147,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1211,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1220,7 +1170,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1234,7 +1184,7 @@
         <v>51</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1243,7 +1193,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1257,7 +1207,7 @@
         <v>52</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1266,7 +1216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1280,7 +1230,7 @@
         <v>49</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1289,7 +1239,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1303,7 +1253,7 @@
         <v>43</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1312,7 +1262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1326,7 +1276,7 @@
         <v>51</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1341,14 +1291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1368,7 +1318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1391,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -1414,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1428,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -1437,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1460,7 +1410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1474,7 +1424,7 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -1483,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1497,7 +1447,7 @@
         <v>41</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -1506,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1520,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -1529,7 +1479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1543,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -1552,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1566,7 +1516,7 @@
         <v>47</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -1575,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1589,7 +1539,7 @@
         <v>48</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -1598,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1612,7 +1562,7 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -1621,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1635,7 +1585,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -1644,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1658,7 +1608,7 @@
         <v>49</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -1667,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1681,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1690,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1704,7 +1654,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1713,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1736,7 +1686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1750,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -1759,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1773,7 +1723,7 @@
         <v>46</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -1782,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1796,7 +1746,7 @@
         <v>51</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -1805,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1819,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -1828,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1842,7 +1792,7 @@
         <v>49</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1851,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1865,7 +1815,7 @@
         <v>43</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -1874,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1888,7 +1838,7 @@
         <v>51</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -1903,16 +1853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1946,10 +1894,10 @@
         <v>61</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1966,10 +1914,10 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1986,10 +1934,10 @@
         <v>61</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2006,10 +1954,10 @@
         <v>61</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2026,10 +1974,10 @@
         <v>61</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2046,10 +1994,10 @@
         <v>61</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2066,10 +2014,10 @@
         <v>61</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2086,10 +2034,10 @@
         <v>61</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2106,10 +2054,10 @@
         <v>61</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2126,10 +2074,10 @@
         <v>61</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2146,10 +2094,10 @@
         <v>61</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2166,10 +2114,10 @@
         <v>61</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2186,10 +2134,10 @@
         <v>61</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2206,10 +2154,10 @@
         <v>61</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2226,10 +2174,10 @@
         <v>61</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2246,10 +2194,10 @@
         <v>61</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2266,10 +2214,10 @@
         <v>61</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2286,10 +2234,10 @@
         <v>61</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2306,10 +2254,10 @@
         <v>61</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2326,10 +2274,10 @@
         <v>61</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2346,10 +2294,10 @@
         <v>61</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2366,10 +2314,10 @@
         <v>61</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2386,7 +2334,7 @@
         <v>61</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -2395,14 +2343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2413,7 +2361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2427,7 +2375,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2441,7 +2389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2455,7 +2403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2469,7 +2417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2483,7 +2431,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2497,7 +2445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2511,7 +2459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2525,7 +2473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2539,7 +2487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2553,7 +2501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2567,7 +2515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2581,7 +2529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2595,7 +2543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2609,7 +2557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2623,7 +2571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2637,7 +2585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2651,7 +2599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2665,7 +2613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2679,7 +2627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2693,7 +2641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2707,7 +2655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2721,7 +2669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2735,7 +2683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2755,16 +2703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2790,7 +2736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2810,7 +2756,7 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2819,7 +2765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2839,7 +2785,7 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>822</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2848,7 +2794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2868,7 +2814,7 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2877,7 +2823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2897,7 +2843,7 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>841</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2906,7 +2852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2926,7 +2872,7 @@
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>741</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2935,7 +2881,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2955,7 +2901,7 @@
         <v>1000</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2964,7 +2910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2984,7 +2930,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2993,7 +2939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3013,7 +2959,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3022,7 +2968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3042,7 +2988,7 @@
         <v>1000</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3051,7 +2997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3071,7 +3017,7 @@
         <v>1000</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3080,7 +3026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3100,7 +3046,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>668</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3109,7 +3055,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3129,7 +3075,7 @@
         <v>1000</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3138,7 +3084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3158,7 +3104,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3167,7 +3113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3187,7 +3133,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3196,7 +3142,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3216,7 +3162,7 @@
         <v>1000</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>629</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3225,7 +3171,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3245,7 +3191,7 @@
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>712</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3254,7 +3200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3274,7 +3220,7 @@
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>993</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3283,7 +3229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3303,7 +3249,7 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>781</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3312,7 +3258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3332,7 +3278,7 @@
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>611</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3341,7 +3287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3361,7 +3307,7 @@
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3370,7 +3316,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3390,7 +3336,7 @@
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3399,7 +3345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3419,7 +3365,7 @@
         <v>1000</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3428,7 +3374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3448,7 +3394,7 @@
         <v>1000</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>969</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3463,31 +3409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64529592-219B-5B45-A26A-A257832609A4}">
-  <dimension ref="B1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
